--- a/medicine/Pharmacie/Emballage_des_médicaments/Emballage_des_médicaments.xlsx
+++ b/medicine/Pharmacie/Emballage_des_médicaments/Emballage_des_médicaments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emballage_des_m%C3%A9dicaments</t>
+          <t>Emballage_des_médicaments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’emballage des médicaments est destiné à les préserver de la lumière, de l'humidité et de l'air. Une directive européenne détermine les mentions qui doivent obligatoirement figurer sur l'emballage, par dérogation, les États membres de l'Union européenne peuvent imposer d'autres inscriptions supplémentaires sur l'emballage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emballage_des_m%C3%A9dicaments</t>
+          <t>Emballage_des_médicaments</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inscriptions obligatoires
-L'objectif des mentions obligatoires sur l'emballage est de donner aux patients une information claire et précise sur les médicaments afin d'en permettre l'utilisation correcte. Ces mentions sont déterminées par le Code communautaire relatif aux médicaments à usage humain[1], établi par la Directive 2001/83/CE du Parlement européen et du Conseil du 6 novembre 2001.
-Autres inscriptions
-Si le médicament soulage et guérit, il est parfois dangereux et peut provoquer des effets indésirables. C'est la raison pour laquelle le pharmacien peut être amené à refuser la délivrance de certains médicaments sans ordonnance afin d'éviter les abus et les accidents.
+          <t>Inscriptions obligatoires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'objectif des mentions obligatoires sur l'emballage est de donner aux patients une information claire et précise sur les médicaments afin d'en permettre l'utilisation correcte. Ces mentions sont déterminées par le Code communautaire relatif aux médicaments à usage humain, établi par la Directive 2001/83/CE du Parlement européen et du Conseil du 6 novembre 2001.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Emballage_des_médicaments</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emballage_des_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Union Européenne</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres inscriptions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Si le médicament soulage et guérit, il est parfois dangereux et peut provoquer des effets indésirables. C'est la raison pour laquelle le pharmacien peut être amené à refuser la délivrance de certains médicaments sans ordonnance afin d'éviter les abus et les accidents.
 En France, un cadre de couleur indique les conditions de délivrance :
 jusqu'en 1988, les médicaments étaient classés en tableaux:
 Les produits toxiques Tableau A (cadre rouge) renouvellement interdit sauf spécification du médecin
